--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth2CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth2CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -214,6 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,51 +281,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -341,10 +342,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -379,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,7 +537,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -545,13 +546,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -561,7 +562,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -570,7 +571,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -579,7 +580,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -589,12 +590,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -625,7 +626,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -644,7 +645,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -656,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -665,10 +666,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -699,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -742,13 +743,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -757,10 +758,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -789,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -813,7 +814,7 @@
       <c r="K2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
@@ -833,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -853,7 +854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="5" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -873,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -893,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="7" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -913,7 +914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="8" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
@@ -933,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="9" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -953,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="10" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -973,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="11" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -993,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="12" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="13" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
@@ -1034,13 +1035,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
@@ -1049,16 +1050,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1102,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="9" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="10" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>45</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="11" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>45</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="12" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>45</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="13" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>45</v>
       </c>
@@ -1524,15 +1525,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A13" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A13"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1541,16 +1542,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1597,7 +1598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -1637,9 +1638,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth2CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth2CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
+    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -214,7 +214,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,51 +280,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -342,10 +341,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -380,7 +379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,7 +431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,7 +536,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -546,13 +545,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -562,7 +561,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -571,7 +570,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -580,7 +579,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -590,12 +589,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -626,7 +625,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -645,7 +644,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -657,7 +656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -666,10 +665,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -700,7 +699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -743,13 +742,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -758,10 +757,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -790,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -814,7 +813,7 @@
       <c r="K2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row customFormat="1" ht="30" r="3" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
@@ -834,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="4" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -854,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="5" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -874,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="6" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -894,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="7" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -914,7 +913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="8" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
@@ -934,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="9" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -954,7 +953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="10" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -974,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="11" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -994,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="12" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="13" s="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
@@ -1035,13 +1034,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
@@ -1050,16 +1049,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1103,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -1138,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="3" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="4" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="5" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="6" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="7" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="8" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="9" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="10" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>45</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="11" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>45</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="12" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>45</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="13" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>45</v>
       </c>
@@ -1525,15 +1524,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A13"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A13" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1542,16 +1541,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1598,7 +1597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -1638,9 +1637,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth2CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth2CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -214,6 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,51 +281,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -341,10 +342,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -379,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,7 +537,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -545,13 +546,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -561,7 +562,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -570,7 +571,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -579,7 +580,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -589,12 +590,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -625,7 +626,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -644,7 +645,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -656,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -665,10 +666,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -699,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -742,13 +743,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -757,10 +758,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -789,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -813,7 +814,7 @@
       <c r="K2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
@@ -833,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -853,7 +854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="5" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -873,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -893,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="7" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -913,7 +914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="8" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
@@ -933,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="9" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -953,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="10" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -973,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="11" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -993,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="12" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="13" s="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
@@ -1034,13 +1035,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
@@ -1049,16 +1050,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1102,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="9" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="10" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>45</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="11" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>45</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="12" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>45</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="13" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>45</v>
       </c>
@@ -1524,15 +1525,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A13" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A13"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1541,16 +1542,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1597,7 +1598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -1637,9 +1638,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth2CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth2CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
